--- a/output/papersImputing.xlsx
+++ b/output/papersImputing.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tag_ax</t>
+          <t>tag_pr</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
